--- a/SuppXLS/Scen_RES_SHARE_90%_24_7.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_90%_24_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_FULL\SuppXLS\Policy_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Paponson\_MSC_SET\_Energy Policy_UPC\FINAL Project\USED_Policy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360D1D5-A62A-4ADB-9CD7-94D858B26B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF113D2E-3C4D-48B6-9B17-13F3AA38A32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS_1" sheetId="11" r:id="rId1"/>
@@ -32,8 +32,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -71,7 +94,28 @@
     <t>FLO_SHAR</t>
   </si>
   <si>
-    <t>ANNUAL</t>
+    <t>WIN_DAY</t>
+  </si>
+  <si>
+    <t>WIN_NITE</t>
+  </si>
+  <si>
+    <t>SPR_DAY</t>
+  </si>
+  <si>
+    <t>SPR_NITE</t>
+  </si>
+  <si>
+    <t>SUM_DAY</t>
+  </si>
+  <si>
+    <t>SUM_NITE</t>
+  </si>
+  <si>
+    <t>AUT_DAY</t>
+  </si>
+  <si>
+    <t>AUT_NITE</t>
   </si>
 </sst>
 </file>
@@ -79,12 +123,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="20">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
@@ -100,7 +144,7 @@
     <numFmt numFmtId="180" formatCode="yyyy"/>
     <numFmt numFmtId="181" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="106">
+  <fonts count="107">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +182,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1264,112 +1314,64 @@
   <cellStyleXfs count="1282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1377,7 +1379,7 @@
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1385,195 +1387,235 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1581,27 +1623,35 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1622,58 +1672,58 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1700,553 +1750,553 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="91" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="92" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="5" fillId="3" borderId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="72" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="73" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="72" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="72" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="73" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="73" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="92" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="93" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="72" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="73" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="43" fillId="29" borderId="12" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="66" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="10" fontId="44" fillId="29" borderId="12" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="66" fillId="0" borderId="13">
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="13">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="40" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="95" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="79" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="96" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="80" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -2258,40 +2308,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2320,23 +2370,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2349,62 +2399,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2412,7 +2462,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2421,74 +2471,74 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="81" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="82" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="83" fillId="2" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="82" fillId="2" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="81" fillId="2" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="81" fillId="31" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="82" fillId="31" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="5" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="5" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="13" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="13" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="21" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="21" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="12" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="12" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="81" fillId="33" borderId="15" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="82" fillId="33" borderId="15" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="34" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="34" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="84" fillId="35" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="35" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="36" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="36" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="34" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="34" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="31" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="31" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
@@ -2515,98 +2565,98 @@
     <xf numFmtId="0" fontId="5" fillId="37" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="85" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="86" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="85" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="86" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="83" fillId="36" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="36" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="31" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="31" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="38" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="87" fillId="38" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="48" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="49" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="30" borderId="12"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="30" borderId="12"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="39" borderId="16" applyNumberFormat="0" applyProtection="0">
@@ -2642,10 +2692,10 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2656,175 +2706,171 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="43" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="43" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="88" fillId="0" borderId="11" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="89" fillId="0" borderId="11" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="89" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="90" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="66" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="104" fillId="41" borderId="18" xfId="1281" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="105" fillId="41" borderId="18" xfId="1281" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="19" xfId="1280" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="1281" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="19" xfId="1280" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="1281" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="19" xfId="1280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1280" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1282">
     <cellStyle name="20 % - Akzent1 2" xfId="338" xr:uid="{F45CA455-86B7-48DC-AA00-C66E9CC6D9BA}"/>
@@ -4409,76 +4455,1163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:9">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:9"/>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6">
+        <v>2025</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>2025</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>2025</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>2025</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>2025</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>2025</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2025</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>2025</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
         <v>2030</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>2030</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>2030</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>2030</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>2030</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>2030</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>2030</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>2030</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>2035</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>2035</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>2035</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>2035</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>2035</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>2035</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>2035</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>2035</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>2040</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>2040</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>2040</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>2040</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>2040</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>2040</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>2040</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>2040</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>2045</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>2045</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>2045</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>2045</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>2045</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>2045</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>2045</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>2045</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>2050</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>2050</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>2050</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>2050</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>2050</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>2050</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>2050</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>2050</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="105" type="noConversion"/>
+  <phoneticPr fontId="106" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>